--- a/Wine_Quality/outputs/train_60_test_40/depth_5/wq_train_60_test_40_depth_5_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_5/wq_train_60_test_40_depth_5_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6203703703703703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01020408163265306</v>
+        <v>0.3933463796477495</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.481437125748503</v>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8016040523427607</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9542713567839196</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8713007570543703</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="E3" t="n">
-        <v>1990</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5982142857142857</v>
+        <v>0.8215547703180212</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2622309197651663</v>
+        <v>0.9346733668341709</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3646258503401361</v>
+        <v>0.8744710860366713</v>
       </c>
       <c r="E4" t="n">
-        <v>511</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.7937668333974606</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.7937668333974606</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.7937668333974606</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.7937668333974606</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5221616682412377</v>
+        <v>0.5412477741688577</v>
       </c>
       <c r="C6" t="n">
-        <v>0.408902119393913</v>
+        <v>0.4494759699157422</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4183857922084251</v>
+        <v>0.4642018198305322</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7376732964584174</v>
+        <v>0.7578766579493279</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.7937668333974606</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7395524938232482</v>
+        <v>0.7656052954004194</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>

--- a/Wine_Quality/outputs/train_60_test_40/depth_5/wq_train_60_test_40_depth_5_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_5/wq_train_60_test_40_depth_5_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6203703703703703</v>
+        <v>0.62</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3933463796477495</v>
+        <v>0.39</v>
       </c>
       <c r="D2" t="n">
-        <v>0.481437125748503</v>
+        <v>0.48</v>
       </c>
       <c r="E2" t="n">
         <v>511</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.18</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03669724770642202</v>
+        <v>0.04</v>
       </c>
       <c r="E3" t="n">
         <v>98</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8215547703180212</v>
+        <v>0.82</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9346733668341709</v>
+        <v>0.93</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8744710860366713</v>
+        <v>0.87</v>
       </c>
       <c r="E4" t="n">
         <v>1990</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7937668333974606</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7937668333974606</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7937668333974606</v>
+        <v>0.79</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7937668333974606</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5412477741688577</v>
+        <v>0.54</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4494759699157422</v>
+        <v>0.45</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4642018198305322</v>
+        <v>0.46</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7578766579493279</v>
+        <v>0.76</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7937668333974606</v>
+        <v>0.79</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7656052954004194</v>
+        <v>0.77</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>
